--- a/Audit P4/Analyse SEO - Chouette Agence.xlsx
+++ b/Audit P4/Analyse SEO - Chouette Agence.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>Ordre</t>
   </si>
@@ -40,28 +40,52 @@
     <t>Keywords Dissimulés</t>
   </si>
   <si>
-    <t xml:space="preserve">Technique Black Hats visant à améliorer le référencement. Keywords avec une hauteur de 1px, dissimulés autour de l'icone de l'entreprise. </t>
+    <t xml:space="preserve">Technique Black Hats visant à améliorer le référencement. Keywords avec une hauteur de 1px, dissimulés autour de l'icone de l'entreprise. Google pourrait striker le site! </t>
+  </si>
+  <si>
+    <t>Χ</t>
   </si>
   <si>
     <t>Technique à proscrire. Site potentiellement strikable par Google</t>
   </si>
   <si>
+    <t>https://seomantique.fr/le-keyword-stuffing-une-pratique-seo-black-hat-a-eviter/</t>
+  </si>
+  <si>
     <t>Title Manquant</t>
   </si>
   <si>
-    <t xml:space="preserve">Title manquant. </t>
-  </si>
-  <si>
-    <t>Renseigner le Title</t>
+    <t>Balise Title vide. Ces balises indiquent aux moteurs de recherche de quoi traite la page (également dans les résultats). Doivent contenir mots clés visés, mais aussi donner envie de cliquer.</t>
+  </si>
+  <si>
+    <t>Renseigner le Title, en lien avec la page concernée.</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-on-page-balise-title/</t>
   </si>
   <si>
     <t>Description Manquante</t>
   </si>
   <si>
-    <t xml:space="preserve">Description manquante. </t>
-  </si>
-  <si>
-    <t>Renseigner Description</t>
+    <t>Description manquante. Rappel du nom de la marque, son "pourquoi", ses avantages et aide à Google de la compréhension du contexte de notre produit avec Keywords proches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renseigner Description. Mot-clé présent au début de la balise . </t>
+  </si>
+  <si>
+    <t>https://www.consultante-seo.paris/balise-meta-description/</t>
+  </si>
+  <si>
+    <t>Répétition Keywords</t>
+  </si>
+  <si>
+    <t>Technique sanctionnable par les moteurs de recherche.</t>
+  </si>
+  <si>
+    <t>eviter répétion keywords, balise meta.</t>
+  </si>
+  <si>
+    <t>https://www.yateo.com/blog/keyword-stuffing</t>
   </si>
   <si>
     <t>Technique</t>
@@ -70,22 +94,52 @@
     <t>Mauvais choix de fichier img</t>
   </si>
   <si>
-    <t>Mauvais type de fichier d'image: volumineux et non adaptés</t>
-  </si>
-  <si>
-    <t>correction type fichier + redimension</t>
-  </si>
-  <si>
-    <t>Répétition Keywords</t>
-  </si>
-  <si>
-    <t>eviter répétion keywords, balise meta</t>
+    <t xml:space="preserve">Mauvais type de fichier d'image: volumineux et non adaptés (bmp, png), entrainant un ralentissement de la vitesse de chargement et un site trop volumineux. </t>
+  </si>
+  <si>
+    <t>correction type fichier + redimension. Conversion en fichier webp.</t>
+  </si>
+  <si>
+    <t>https://www.seonity.com/format-image-webp-seo/</t>
+  </si>
+  <si>
+    <t>Technique/SEO</t>
   </si>
   <si>
     <t>Nom Fichier html</t>
   </si>
   <si>
-    <t>nom adapté au contenu de la page</t>
+    <t>Nom de la page "contact": "page2.html" . Entraine problèmes cohérence au niveau SEO et Accessibilité.</t>
+  </si>
+  <si>
+    <t>Nom a adapté en fonction du contenu de la page. L' URL d'une page doit contenir le sujet de la page</t>
+  </si>
+  <si>
+    <t>https://www.hebergementwebs.com/tutoriel-seo/seo-noms-de-fichiers-pertinents</t>
+  </si>
+  <si>
+    <t>Fichiers non appelés</t>
+  </si>
+  <si>
+    <t>Mauvais nom de fichier css et js appelés: mauvais rendu front-end</t>
+  </si>
+  <si>
+    <t>correction fichiers appellés dans le code html.</t>
+  </si>
+  <si>
+    <t>Annuaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuaire de liens, conduisant parfois vers des sites n'ayant aucun contexte avec l'environnement de l'entreprise (pizza, voiture, toiture, etc). Si Google le détecte, il peut pénaliser le site. </t>
+  </si>
+  <si>
+    <t>Privilégier liens fiables, dans le même contexte pro que nos produits, afin de permettre à Google de mieux comprendre/analyser le site.</t>
+  </si>
+  <si>
+    <t>https://naturedigitale.fr/annuaires-referencement/</t>
+  </si>
+  <si>
+    <t>SEO/Technique</t>
   </si>
   <si>
     <t>Localisation Géographique érronée</t>
@@ -94,28 +148,22 @@
     <t>Plusieurs références à la ville de Paris, alors que l'entreprise est basée sur Lyon</t>
   </si>
   <si>
-    <t>Modifier référence Paris&gt;Lyon</t>
+    <t>Modifier référence à Paris, par Lyon</t>
   </si>
   <si>
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Lisibilité</t>
-  </si>
-  <si>
-    <t>mauvaise lisibilité : contraste texte + background</t>
-  </si>
-  <si>
-    <t>modifier couleur texte ou background</t>
-  </si>
-  <si>
-    <t>Fichiers non appelés</t>
-  </si>
-  <si>
-    <t>Mauvais nom de fichier css et js appelés</t>
-  </si>
-  <si>
-    <t>correction fichiers appellés</t>
+    <t>Perceptibilité</t>
+  </si>
+  <si>
+    <t>Contenu peu distinguable : contraste texte/background insuffisamment élevé (1.4:1).</t>
+  </si>
+  <si>
+    <t>modifier couleur texte ou background pour atteindre un rapport de contraste de 4.5:1 et de 3:1 pour un texte de grande taille. Ceci permettant de garantir un contenu accessible, perceptible et distinguable.</t>
+  </si>
+  <si>
+    <t>WCAG (Règles pour l'Accessibilité des Contenus Web)</t>
   </si>
   <si>
     <t>SEO/Accessibilité</t>
@@ -124,14 +172,77 @@
     <t>Choix langue</t>
   </si>
   <si>
-    <t>Langue HTML</t>
+    <t>Langue HTML non définie: &lt;html lang="Default"&gt;</t>
+  </si>
+  <si>
+    <t>Détermination de la langue de la page ( ex: &lt;html lang="fr"&gt;). Pour référencement localisé géographiquement (France) et afin de garantir un contenu accessible, compréhensible et lisible (lecteurs d'écran)</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines 2.1</t>
+  </si>
+  <si>
+    <t>Balises Alt des images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balises similaires pour toutes les photos. Notion de la ville de Paris. Non descriptive de la photo. Répétition de Keywords. </t>
+  </si>
+  <si>
+    <t>Rétablir bonnes balises</t>
+  </si>
+  <si>
+    <t>Défaut responsive mobile</t>
+  </si>
+  <si>
+    <t>Certaines parties du site sont illisibles quand l'écran est au format smartphone (images au lieu de texte). Google utilise dorénavant la version mobile du site web pour le classement et l'indexation. Version mobile = version principale lors indexation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction des bugs sur la version responsive. </t>
+  </si>
+  <si>
+    <t>SEO/Technique/Accessibilité</t>
+  </si>
+  <si>
+    <t>Images au lieu de texte</t>
+  </si>
+  <si>
+    <t>Il est noté que certains texte sur les pages sont en réalité des images. Ceci entraine des problèmes au niveau du responsive (ce qui est écrit disparait), mais également au niveau SEO (Google ne peut analyser une image), et au niveau de l'accessibilité (lecteur d'écran ne peuvent lire une image)</t>
+  </si>
+  <si>
+    <t>Remplacer les images par du texte</t>
+  </si>
+  <si>
+    <t>Mauvaise largeur image responsive</t>
+  </si>
+  <si>
+    <t>Sur index.html, les 2 dernieres photos illustrant les h3, prennent une largeur différente des 2 premières, lorsque l'on passe en format mobile.</t>
+  </si>
+  <si>
+    <t>Résoudre soucis css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille police trop petite </t>
+  </si>
+  <si>
+    <t>dans &lt;p&gt;, taille police = 11px, insuffisant pour obtenir une suffisamment bonne lisibilité</t>
+  </si>
+  <si>
+    <t>taille police =15px</t>
+  </si>
+  <si>
+    <t>Label non relié aux form</t>
+  </si>
+  <si>
+    <t>Dans le code html, de la page contact, les label, ne sont pas reliés (via for="id") aux formulaires, ce qui ne permet pas aux lecteurs d'écran d'annoncer le formulaire</t>
+  </si>
+  <si>
+    <t>liaison des label aux formulaires via, l'id des formulaire. ex: &lt;label for="name"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -156,11 +267,6 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -168,8 +274,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +351,12 @@
         <bgColor rgb="FF9900FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -249,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -272,24 +393,29 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -305,6 +431,18 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,12 +661,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="14.44"/>
+    <col customWidth="1" min="2" max="2" width="22.0"/>
     <col customWidth="1" min="3" max="3" width="27.11"/>
-    <col customWidth="1" min="4" max="4" width="102.33"/>
-    <col customWidth="1" min="5" max="5" width="50.33"/>
-    <col customWidth="1" min="6" max="6" width="68.78"/>
-    <col customWidth="1" min="7" max="7" width="39.0"/>
+    <col customWidth="1" min="4" max="4" width="212.33"/>
+    <col customWidth="1" min="5" max="5" width="28.33"/>
+    <col customWidth="1" min="6" max="6" width="150.78"/>
+    <col customWidth="1" min="7" max="7" width="120.33"/>
     <col customWidth="1" min="8" max="26" width="10.56"/>
   </cols>
   <sheetData>
@@ -587,28 +725,38 @@
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>2.0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="11">
@@ -618,155 +766,354 @@
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="12">
         <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5.0</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
+      <c r="C18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+    </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -1738,9 +2085,18 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink r:id="rId6" ref="G7"/>
+    <hyperlink r:id="rId7" ref="G9"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>